--- a/excel/finished/wg4#烧结/4烧结堆场运行统计.xlsx
+++ b/excel/finished/wg4#烧结/4烧结堆场运行统计.xlsx
@@ -4,17 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
-    <sheet name="统计" sheetId="2" r:id="rId1"/>
-    <sheet name="_data" sheetId="1" r:id="rId2"/>
+    <sheet name="统计" sheetId="1" r:id="rId1"/>
+    <sheet name="_data" sheetId="2" r:id="rId2"/>
     <sheet name="_dictionary" sheetId="3" r:id="rId3"/>
     <sheet name="_metadata" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">_data!$A$1:$H$1</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -106,21 +103,20 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* \-_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* \-??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* \-??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -131,19 +127,16 @@
     </font>
     <font>
       <sz val="18"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="24"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="20"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -155,21 +148,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
+      <color indexed="60"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="2"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -188,8 +221,21 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="17"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -201,69 +247,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
+      <color indexed="65"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -277,7 +269,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,25 +329,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor indexed="26"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,13 +365,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,91 +383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor indexed="65"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,25 +407,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor indexed="55"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="43"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,51 +464,75 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top/>
       <bottom/>
@@ -524,53 +540,44 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color theme="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </left>
       <right style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </right>
       <top style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
       </top>
       <bottom style="thin">
-        <color indexed="63"/>
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,16 +601,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </left>
       <right style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </right>
       <top style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </top>
       <bottom style="thin">
-        <color indexed="23"/>
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -619,21 +626,6 @@
       </top>
       <bottom style="double">
         <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="22"/>
-      </left>
-      <right style="thin">
-        <color indexed="22"/>
-      </right>
-      <top style="thin">
-        <color indexed="22"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="22"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,10 +657,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="11">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="9">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
@@ -677,183 +669,183 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="13">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="12">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="13">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="15">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="3" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="4" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="5" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="6" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="7" xfId="11" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -909,12 +901,6 @@
     <cellStyle name="常规_数据_1" xfId="49"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="00555555"/>
-      <color rgb="00000000"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -967,73 +953,13 @@
     <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1041,7 +967,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1067,7 +993,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1119,16 +1045,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -1144,7 +1082,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -1181,27 +1119,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="A1" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="9" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.25" style="2" customWidth="1"/>
-    <col min="6" max="6" width="10.875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="13.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="15.375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="5.75" customWidth="1"/>
-    <col min="13" max="13" width="4.75" customWidth="1"/>
-    <col min="14" max="14" width="4.125" customWidth="1"/>
+    <col min="3" max="3" width="18.85" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.7083333333333" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.7083333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.2833333333333" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16" style="2" customWidth="1"/>
+    <col min="8" max="8" width="16.85" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.2833333333333" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.7083333333333" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9.25" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="6.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="42.75" customHeight="1" spans="1:10">
@@ -1218,7 +1156,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" s="4" customFormat="1" ht="49.5" customHeight="1" spans="1:18">
+    <row r="2" s="4" customFormat="1" ht="49.5" customHeight="1" spans="1:14">
       <c r="A2" s="6"/>
       <c r="B2" s="7" t="s">
         <v>1</v>
@@ -1247,13 +1185,13 @@
       <c r="J2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="14" t="s">
+      <c r="M2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="N2" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1262,11 +1200,11 @@
         <v>13</v>
       </c>
       <c r="B3" s="8">
-        <f>D3+G3</f>
+        <f t="shared" ref="B3:B6" si="0">D3+G3</f>
         <v>0</v>
       </c>
       <c r="C3" s="8">
-        <f>E3+H3</f>
+        <f t="shared" ref="C3:C6" si="1">E3+H3</f>
         <v>0</v>
       </c>
       <c r="D3" s="8">
@@ -1293,8 +1231,8 @@
         <f>IF(_data!G2&lt;&gt;"",_data!G2,0)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="11" t="e">
-        <f>IF(Q2&lt;&gt;0,C7/60/Q2/24,0)</f>
+      <c r="J3" s="13" t="e">
+        <f>IF(M2&lt;&gt;0,C7/60/M2/24,0)</f>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1303,11 +1241,11 @@
         <v>14</v>
       </c>
       <c r="B4" s="8">
-        <f>D4+G4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C4" s="8">
-        <f>E4+H4</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D4" s="8">
@@ -1334,18 +1272,18 @@
         <f>IF(_data!G3&lt;&gt;"",_data!G3,0)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="12"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" s="4" customFormat="1" ht="49.5" customHeight="1" spans="1:10">
       <c r="A5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="8">
-        <f>D5+G5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C5" s="8">
-        <f>E5+H5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D5" s="8">
@@ -1372,18 +1310,18 @@
         <f>IF(_data!G4&lt;&gt;"",_data!G4,0)</f>
         <v>0</v>
       </c>
-      <c r="J5" s="12"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="49.5" customHeight="1" spans="1:10">
       <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="8">
-        <f>D6+G6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="C6" s="8">
-        <f>E6+H6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D6" s="8">
@@ -1410,45 +1348,45 @@
         <f>IF(_data!G5&lt;&gt;"",_data!G5,0)</f>
         <v>0</v>
       </c>
-      <c r="J6" s="12"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" s="4" customFormat="1" ht="49.5" customHeight="1" spans="1:10">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="8">
-        <f t="shared" ref="B7:I7" si="0">SUM(B3:B6)</f>
+        <f t="shared" ref="B7:I7" si="2">SUM(B3:B6)</f>
         <v>0</v>
       </c>
       <c r="C7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J7" s="13"/>
+      <c r="J7" s="15"/>
     </row>
     <row r="8" customHeight="1" spans="4:9">
       <c r="D8" s="9"/>
@@ -1463,9 +1401,9 @@
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="J3:J7"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1475,7 +1413,7 @@
   <dimension ref="A1:IU73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1"/>
@@ -1513,17 +1451,10 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="1" ht="14.25" spans="1:255">
+    <row r="2" ht="14.25" spans="1:255">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1772,17 +1703,10 @@
       <c r="IT2" s="3"/>
       <c r="IU2" s="3"/>
     </row>
-    <row r="3" customFormat="1" ht="14.25" spans="1:255">
+    <row r="3" ht="14.25" spans="1:255">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -2031,17 +1955,10 @@
       <c r="IT3" s="3"/>
       <c r="IU3" s="3"/>
     </row>
-    <row r="4" customFormat="1" ht="14.25" spans="1:255">
+    <row r="4" ht="14.25" spans="1:255">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -2290,17 +2207,10 @@
       <c r="IT4" s="3"/>
       <c r="IU4" s="3"/>
     </row>
-    <row r="5" customFormat="1" ht="14.25" spans="1:255">
+    <row r="5" ht="14.25" spans="1:255">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -2549,15 +2459,7 @@
       <c r="IT5" s="3"/>
       <c r="IU5" s="3"/>
     </row>
-    <row r="6" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+    <row r="6" ht="14.25" spans="9:255">
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -2806,15 +2708,7 @@
       <c r="IT6" s="3"/>
       <c r="IU6" s="3"/>
     </row>
-    <row r="7" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+    <row r="7" ht="14.25" spans="9:255">
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -3063,15 +2957,7 @@
       <c r="IT7" s="3"/>
       <c r="IU7" s="3"/>
     </row>
-    <row r="8" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+    <row r="8" ht="14.25" spans="9:255">
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -3320,15 +3206,7 @@
       <c r="IT8" s="3"/>
       <c r="IU8" s="3"/>
     </row>
-    <row r="9" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+    <row r="9" ht="14.25" spans="9:255">
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
@@ -3577,15 +3455,7 @@
       <c r="IT9" s="3"/>
       <c r="IU9" s="3"/>
     </row>
-    <row r="10" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+    <row r="10" ht="14.25" spans="9:255">
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
@@ -3834,15 +3704,7 @@
       <c r="IT10" s="3"/>
       <c r="IU10" s="3"/>
     </row>
-    <row r="11" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+    <row r="11" ht="14.25" spans="9:255">
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
@@ -4091,15 +3953,7 @@
       <c r="IT11" s="3"/>
       <c r="IU11" s="3"/>
     </row>
-    <row r="12" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+    <row r="12" ht="14.25" spans="9:255">
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
@@ -4348,15 +4202,7 @@
       <c r="IT12" s="3"/>
       <c r="IU12" s="3"/>
     </row>
-    <row r="13" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+    <row r="13" ht="14.25" spans="9:255">
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
@@ -4605,15 +4451,7 @@
       <c r="IT13" s="3"/>
       <c r="IU13" s="3"/>
     </row>
-    <row r="14" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+    <row r="14" ht="14.25" spans="9:255">
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
@@ -4862,15 +4700,7 @@
       <c r="IT14" s="3"/>
       <c r="IU14" s="3"/>
     </row>
-    <row r="15" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+    <row r="15" ht="14.25" spans="9:255">
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -5119,15 +4949,7 @@
       <c r="IT15" s="3"/>
       <c r="IU15" s="3"/>
     </row>
-    <row r="16" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+    <row r="16" ht="14.25" spans="9:255">
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -5376,15 +5198,7 @@
       <c r="IT16" s="3"/>
       <c r="IU16" s="3"/>
     </row>
-    <row r="17" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
+    <row r="17" ht="14.25" spans="9:255">
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -5633,15 +5447,7 @@
       <c r="IT17" s="3"/>
       <c r="IU17" s="3"/>
     </row>
-    <row r="18" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+    <row r="18" ht="14.25" spans="9:255">
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -5890,15 +5696,7 @@
       <c r="IT18" s="3"/>
       <c r="IU18" s="3"/>
     </row>
-    <row r="19" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
+    <row r="19" ht="14.25" spans="9:255">
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -6147,15 +5945,7 @@
       <c r="IT19" s="3"/>
       <c r="IU19" s="3"/>
     </row>
-    <row r="20" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+    <row r="20" ht="14.25" spans="9:255">
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -6404,15 +6194,7 @@
       <c r="IT20" s="3"/>
       <c r="IU20" s="3"/>
     </row>
-    <row r="21" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+    <row r="21" ht="14.25" spans="9:255">
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -6661,15 +6443,7 @@
       <c r="IT21" s="3"/>
       <c r="IU21" s="3"/>
     </row>
-    <row r="22" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+    <row r="22" ht="14.25" spans="9:255">
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -6918,15 +6692,7 @@
       <c r="IT22" s="3"/>
       <c r="IU22" s="3"/>
     </row>
-    <row r="23" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+    <row r="23" ht="14.25" spans="9:255">
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -7175,15 +6941,7 @@
       <c r="IT23" s="3"/>
       <c r="IU23" s="3"/>
     </row>
-    <row r="24" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+    <row r="24" ht="14.25" spans="9:255">
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -7432,15 +7190,7 @@
       <c r="IT24" s="3"/>
       <c r="IU24" s="3"/>
     </row>
-    <row r="25" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+    <row r="25" ht="14.25" spans="9:255">
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
@@ -7689,15 +7439,7 @@
       <c r="IT25" s="3"/>
       <c r="IU25" s="3"/>
     </row>
-    <row r="26" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+    <row r="26" ht="14.25" spans="9:255">
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -7946,15 +7688,7 @@
       <c r="IT26" s="3"/>
       <c r="IU26" s="3"/>
     </row>
-    <row r="27" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+    <row r="27" ht="14.25" spans="9:255">
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
@@ -8203,15 +7937,7 @@
       <c r="IT27" s="3"/>
       <c r="IU27" s="3"/>
     </row>
-    <row r="28" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
+    <row r="28" ht="14.25" spans="9:255">
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -8460,15 +8186,7 @@
       <c r="IT28" s="3"/>
       <c r="IU28" s="3"/>
     </row>
-    <row r="29" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+    <row r="29" ht="14.25" spans="9:255">
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -8717,15 +8435,7 @@
       <c r="IT29" s="3"/>
       <c r="IU29" s="3"/>
     </row>
-    <row r="30" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+    <row r="30" ht="14.25" spans="9:255">
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
@@ -8974,15 +8684,7 @@
       <c r="IT30" s="3"/>
       <c r="IU30" s="3"/>
     </row>
-    <row r="31" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
+    <row r="31" ht="14.25" spans="9:255">
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
@@ -9231,15 +8933,7 @@
       <c r="IT31" s="3"/>
       <c r="IU31" s="3"/>
     </row>
-    <row r="32" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
+    <row r="32" ht="14.25" spans="9:255">
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
@@ -9488,15 +9182,7 @@
       <c r="IT32" s="3"/>
       <c r="IU32" s="3"/>
     </row>
-    <row r="33" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
+    <row r="33" ht="14.25" spans="9:255">
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -9745,15 +9431,7 @@
       <c r="IT33" s="3"/>
       <c r="IU33" s="3"/>
     </row>
-    <row r="34" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
+    <row r="34" ht="14.25" spans="9:255">
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -10002,15 +9680,7 @@
       <c r="IT34" s="3"/>
       <c r="IU34" s="3"/>
     </row>
-    <row r="35" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
+    <row r="35" ht="14.25" spans="9:255">
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
@@ -10259,15 +9929,7 @@
       <c r="IT35" s="3"/>
       <c r="IU35" s="3"/>
     </row>
-    <row r="36" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
+    <row r="36" ht="14.25" spans="9:255">
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
@@ -10516,15 +10178,7 @@
       <c r="IT36" s="3"/>
       <c r="IU36" s="3"/>
     </row>
-    <row r="37" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
+    <row r="37" ht="14.25" spans="9:255">
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
@@ -10773,15 +10427,7 @@
       <c r="IT37" s="3"/>
       <c r="IU37" s="3"/>
     </row>
-    <row r="38" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
+    <row r="38" ht="14.25" spans="9:255">
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
@@ -11030,15 +10676,7 @@
       <c r="IT38" s="3"/>
       <c r="IU38" s="3"/>
     </row>
-    <row r="39" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+    <row r="39" ht="14.25" spans="9:255">
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
@@ -11287,15 +10925,7 @@
       <c r="IT39" s="3"/>
       <c r="IU39" s="3"/>
     </row>
-    <row r="40" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
+    <row r="40" ht="14.25" spans="9:255">
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
@@ -11544,15 +11174,7 @@
       <c r="IT40" s="3"/>
       <c r="IU40" s="3"/>
     </row>
-    <row r="41" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
+    <row r="41" ht="14.25" spans="9:255">
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -11801,15 +11423,7 @@
       <c r="IT41" s="3"/>
       <c r="IU41" s="3"/>
     </row>
-    <row r="42" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
+    <row r="42" ht="14.25" spans="9:255">
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
@@ -12058,15 +11672,7 @@
       <c r="IT42" s="3"/>
       <c r="IU42" s="3"/>
     </row>
-    <row r="43" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
+    <row r="43" ht="14.25" spans="9:255">
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
       <c r="K43" s="3"/>
@@ -12315,15 +11921,7 @@
       <c r="IT43" s="3"/>
       <c r="IU43" s="3"/>
     </row>
-    <row r="44" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
+    <row r="44" ht="14.25" spans="9:255">
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -12572,15 +12170,7 @@
       <c r="IT44" s="3"/>
       <c r="IU44" s="3"/>
     </row>
-    <row r="45" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
+    <row r="45" ht="14.25" spans="9:255">
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
       <c r="K45" s="3"/>
@@ -12829,15 +12419,7 @@
       <c r="IT45" s="3"/>
       <c r="IU45" s="3"/>
     </row>
-    <row r="46" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+    <row r="46" ht="14.25" spans="9:255">
       <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
@@ -13086,15 +12668,7 @@
       <c r="IT46" s="3"/>
       <c r="IU46" s="3"/>
     </row>
-    <row r="47" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
+    <row r="47" ht="14.25" spans="9:255">
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -13343,15 +12917,7 @@
       <c r="IT47" s="3"/>
       <c r="IU47" s="3"/>
     </row>
-    <row r="48" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
+    <row r="48" ht="14.25" spans="9:255">
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
       <c r="K48" s="3"/>
@@ -13600,15 +13166,7 @@
       <c r="IT48" s="3"/>
       <c r="IU48" s="3"/>
     </row>
-    <row r="49" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
+    <row r="49" ht="14.25" spans="9:255">
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -13857,15 +13415,7 @@
       <c r="IT49" s="3"/>
       <c r="IU49" s="3"/>
     </row>
-    <row r="50" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
+    <row r="50" ht="14.25" spans="9:255">
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
       <c r="K50" s="3"/>
@@ -14114,15 +13664,7 @@
       <c r="IT50" s="3"/>
       <c r="IU50" s="3"/>
     </row>
-    <row r="51" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+    <row r="51" ht="14.25" spans="9:255">
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
       <c r="K51" s="3"/>
@@ -14371,15 +13913,7 @@
       <c r="IT51" s="3"/>
       <c r="IU51" s="3"/>
     </row>
-    <row r="52" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
+    <row r="52" ht="14.25" spans="9:255">
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
       <c r="K52" s="3"/>
@@ -14628,15 +14162,7 @@
       <c r="IT52" s="3"/>
       <c r="IU52" s="3"/>
     </row>
-    <row r="53" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
+    <row r="53" ht="14.25" spans="9:255">
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
       <c r="K53" s="3"/>
@@ -14885,15 +14411,7 @@
       <c r="IT53" s="3"/>
       <c r="IU53" s="3"/>
     </row>
-    <row r="54" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
+    <row r="54" ht="14.25" spans="9:255">
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
       <c r="K54" s="3"/>
@@ -15142,15 +14660,7 @@
       <c r="IT54" s="3"/>
       <c r="IU54" s="3"/>
     </row>
-    <row r="55" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
+    <row r="55" ht="14.25" spans="9:255">
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
@@ -15399,15 +14909,7 @@
       <c r="IT55" s="3"/>
       <c r="IU55" s="3"/>
     </row>
-    <row r="56" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
+    <row r="56" ht="14.25" spans="9:255">
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
@@ -15656,15 +15158,7 @@
       <c r="IT56" s="3"/>
       <c r="IU56" s="3"/>
     </row>
-    <row r="57" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
+    <row r="57" ht="14.25" spans="9:255">
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
@@ -15913,15 +15407,7 @@
       <c r="IT57" s="3"/>
       <c r="IU57" s="3"/>
     </row>
-    <row r="58" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
+    <row r="58" ht="14.25" spans="9:255">
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
       <c r="K58" s="3"/>
@@ -16170,15 +15656,7 @@
       <c r="IT58" s="3"/>
       <c r="IU58" s="3"/>
     </row>
-    <row r="59" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+    <row r="59" ht="14.25" spans="9:255">
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
       <c r="K59" s="3"/>
@@ -16427,15 +15905,7 @@
       <c r="IT59" s="3"/>
       <c r="IU59" s="3"/>
     </row>
-    <row r="60" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+    <row r="60" ht="14.25" spans="9:255">
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
       <c r="K60" s="3"/>
@@ -16684,15 +16154,7 @@
       <c r="IT60" s="3"/>
       <c r="IU60" s="3"/>
     </row>
-    <row r="61" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+    <row r="61" ht="14.25" spans="9:255">
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
       <c r="K61" s="3"/>
@@ -16941,15 +16403,7 @@
       <c r="IT61" s="3"/>
       <c r="IU61" s="3"/>
     </row>
-    <row r="62" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
+    <row r="62" ht="14.25" spans="9:255">
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
       <c r="K62" s="3"/>
@@ -17198,15 +16652,7 @@
       <c r="IT62" s="3"/>
       <c r="IU62" s="3"/>
     </row>
-    <row r="63" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+    <row r="63" ht="14.25" spans="9:255">
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -17455,15 +16901,7 @@
       <c r="IT63" s="3"/>
       <c r="IU63" s="3"/>
     </row>
-    <row r="64" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
+    <row r="64" ht="14.25" spans="9:255">
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3"/>
@@ -17712,15 +17150,7 @@
       <c r="IT64" s="3"/>
       <c r="IU64" s="3"/>
     </row>
-    <row r="65" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
+    <row r="65" ht="14.25" spans="9:255">
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -17969,15 +17399,7 @@
       <c r="IT65" s="3"/>
       <c r="IU65" s="3"/>
     </row>
-    <row r="66" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
+    <row r="66" ht="14.25" spans="9:255">
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
       <c r="K66" s="3"/>
@@ -18226,15 +17648,7 @@
       <c r="IT66" s="3"/>
       <c r="IU66" s="3"/>
     </row>
-    <row r="67" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
+    <row r="67" ht="14.25" spans="9:255">
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
@@ -18483,15 +17897,7 @@
       <c r="IT67" s="3"/>
       <c r="IU67" s="3"/>
     </row>
-    <row r="68" customFormat="1" ht="14.25" spans="1:255">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
+    <row r="68" ht="14.25" spans="9:255">
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
@@ -19986,9 +19392,9 @@
       <c r="IU73" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -20013,6 +19419,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -20029,6 +19436,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>